--- a/public/exp/BODAktualCimahi.xlsx
+++ b/public/exp/BODAktualCimahi.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dikiprastyo\Gawean\04. Campuran\02. Pengembangan Web Cimahi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2DD969-7049-4674-84FB-78EB54663735}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel 29" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -948,7 +947,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1311,6 +1310,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1324,25 +1336,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1433,23 +1432,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1485,23 +1467,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1677,14 +1642,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AR11" sqref="AR11"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,14 +1667,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1764,7 +1729,7 @@
       <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="52" t="s">
         <v>189</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -1851,10 +1816,10 @@
       <c r="AO4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="AP4" s="52" t="s">
+      <c r="AP4" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="AQ4" s="52" t="s">
+      <c r="AQ4" s="47" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1862,7 +1827,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="54" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -1982,10 +1947,10 @@
       <c r="AO5" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="AP5" s="53">
+      <c r="AP5" s="48">
         <v>0.02</v>
       </c>
-      <c r="AQ5" s="56">
+      <c r="AQ5" s="51">
         <f>(M5*AP5)*86.4</f>
         <v>12.096000000000002</v>
       </c>
@@ -1994,7 +1959,7 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="34" t="s">
         <v>44</v>
       </c>
@@ -2112,10 +2077,10 @@
       <c r="AO6" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP6" s="53">
+      <c r="AP6" s="48">
         <v>0.19</v>
       </c>
-      <c r="AQ6" s="56">
+      <c r="AQ6" s="51">
         <f t="shared" ref="AQ6:AQ19" si="0">(M6*AP6)*86.4</f>
         <v>279.072</v>
       </c>
@@ -2124,7 +2089,7 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="34" t="s">
         <v>51</v>
       </c>
@@ -2242,10 +2207,10 @@
       <c r="AO7" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP7" s="53">
+      <c r="AP7" s="48">
         <v>2.4</v>
       </c>
-      <c r="AQ7" s="56">
+      <c r="AQ7" s="51">
         <f t="shared" si="0"/>
         <v>2903.0400000000004</v>
       </c>
@@ -2254,7 +2219,7 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="54" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -2374,10 +2339,10 @@
       <c r="AO8" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP8" s="53">
+      <c r="AP8" s="48">
         <v>0.35</v>
       </c>
-      <c r="AQ8" s="56">
+      <c r="AQ8" s="51">
         <f t="shared" si="0"/>
         <v>1270.08</v>
       </c>
@@ -2386,7 +2351,7 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="34" t="s">
         <v>66</v>
       </c>
@@ -2504,10 +2469,10 @@
       <c r="AO9" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP9" s="53">
+      <c r="AP9" s="48">
         <v>0.24</v>
       </c>
-      <c r="AQ9" s="56">
+      <c r="AQ9" s="51">
         <f t="shared" si="0"/>
         <v>953.85599999999999</v>
       </c>
@@ -2516,7 +2481,7 @@
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="12" t="s">
         <v>71</v>
       </c>
@@ -2634,10 +2599,10 @@
       <c r="AO10" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP10" s="53">
+      <c r="AP10" s="48">
         <v>0.09</v>
       </c>
-      <c r="AQ10" s="56">
+      <c r="AQ10" s="51">
         <f t="shared" si="0"/>
         <v>419.904</v>
       </c>
@@ -2646,7 +2611,7 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="54" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="34" t="s">
@@ -2766,10 +2731,10 @@
       <c r="AO11" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP11" s="53">
+      <c r="AP11" s="48">
         <v>8.7799999999999994</v>
       </c>
-      <c r="AQ11" s="56">
+      <c r="AQ11" s="51">
         <f t="shared" si="0"/>
         <v>5310.1440000000002</v>
       </c>
@@ -2778,7 +2743,7 @@
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="34" t="s">
         <v>79</v>
       </c>
@@ -2896,10 +2861,10 @@
       <c r="AO12" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP12" s="53">
+      <c r="AP12" s="48">
         <v>1.51</v>
       </c>
-      <c r="AQ12" s="56">
+      <c r="AQ12" s="51">
         <f t="shared" si="0"/>
         <v>1043.712</v>
       </c>
@@ -2908,7 +2873,7 @@
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="34" t="s">
         <v>84</v>
       </c>
@@ -3026,10 +2991,10 @@
       <c r="AO13" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP13" s="53">
+      <c r="AP13" s="48">
         <v>10.4</v>
       </c>
-      <c r="AQ13" s="56">
+      <c r="AQ13" s="51">
         <f t="shared" si="0"/>
         <v>8985.6</v>
       </c>
@@ -3038,7 +3003,7 @@
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="54" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -3158,10 +3123,10 @@
       <c r="AO14" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP14" s="53">
+      <c r="AP14" s="48">
         <v>0.73</v>
       </c>
-      <c r="AQ14" s="56">
+      <c r="AQ14" s="51">
         <f t="shared" si="0"/>
         <v>1072.2240000000002</v>
       </c>
@@ -3170,7 +3135,7 @@
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="34" t="s">
         <v>175</v>
       </c>
@@ -3288,10 +3253,10 @@
       <c r="AO15" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP15" s="53">
+      <c r="AP15" s="48">
         <v>0.06</v>
       </c>
-      <c r="AQ15" s="56">
+      <c r="AQ15" s="51">
         <f t="shared" si="0"/>
         <v>196.99199999999999</v>
       </c>
@@ -3300,7 +3265,7 @@
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="34" t="s">
         <v>178</v>
       </c>
@@ -3418,10 +3383,10 @@
       <c r="AO16" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP16" s="53">
+      <c r="AP16" s="48">
         <v>0.02</v>
       </c>
-      <c r="AQ16" s="56">
+      <c r="AQ16" s="51">
         <f t="shared" si="0"/>
         <v>81.216000000000008</v>
       </c>
@@ -3430,7 +3395,7 @@
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="54" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -3550,10 +3515,10 @@
       <c r="AO17" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP17" s="53">
+      <c r="AP17" s="48">
         <v>0.7</v>
       </c>
-      <c r="AQ17" s="56">
+      <c r="AQ17" s="51">
         <f t="shared" si="0"/>
         <v>1632.96</v>
       </c>
@@ -3562,7 +3527,7 @@
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="12" t="s">
         <v>106</v>
       </c>
@@ -3680,10 +3645,10 @@
       <c r="AO18" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP18" s="53">
+      <c r="AP18" s="48">
         <v>1.59</v>
       </c>
-      <c r="AQ18" s="56">
+      <c r="AQ18" s="51">
         <f t="shared" si="0"/>
         <v>2610.1440000000002</v>
       </c>
@@ -3692,7 +3657,7 @@
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="12" t="s">
         <v>109</v>
       </c>
@@ -3810,17 +3775,17 @@
       <c r="AO19" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AP19" s="53">
+      <c r="AP19" s="48">
         <v>0</v>
       </c>
-      <c r="AQ19" s="56">
+      <c r="AQ19" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="M20" s="54"/>
-      <c r="AP20" s="55"/>
+      <c r="M20" s="49"/>
+      <c r="AP20" s="50"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -3843,49 +3808,49 @@
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="50"/>
-      <c r="AI27" s="50"/>
-      <c r="AJ27" s="50"/>
-      <c r="AK27" s="50"/>
-      <c r="AL27" s="50"/>
-      <c r="AM27" s="50"/>
-      <c r="AN27" s="50"/>
-      <c r="AO27" s="50"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
     </row>
     <row r="28" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
@@ -4011,10 +3976,10 @@
       <c r="AO28" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="AP28" s="52" t="s">
+      <c r="AP28" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="AQ28" s="52" t="s">
+      <c r="AQ28" s="47" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4022,7 +3987,7 @@
       <c r="A29" s="11">
         <v>1</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="54" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -4142,10 +4107,10 @@
       <c r="AO29" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AP29" s="53">
+      <c r="AP29" s="48">
         <v>0.09</v>
       </c>
-      <c r="AQ29" s="56">
+      <c r="AQ29" s="51">
         <f>(M29*AP29)*86.4</f>
         <v>894.24</v>
       </c>
@@ -4154,7 +4119,7 @@
       <c r="A30" s="11">
         <v>2</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="12" t="s">
         <v>44</v>
       </c>
@@ -4273,10 +4238,10 @@
       <c r="AO30" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP30" s="53">
+      <c r="AP30" s="48">
         <v>0.33</v>
       </c>
-      <c r="AQ30" s="56">
+      <c r="AQ30" s="51">
         <f t="shared" ref="AQ30:AQ43" si="1">(M30*AP30)*86.4</f>
         <v>701.39520000000005</v>
       </c>
@@ -4285,7 +4250,7 @@
       <c r="A31" s="11">
         <v>3</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="12" t="s">
         <v>51</v>
       </c>
@@ -4403,10 +4368,10 @@
       <c r="AO31" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP31" s="53">
+      <c r="AP31" s="48">
         <v>0.9</v>
       </c>
-      <c r="AQ31" s="56">
+      <c r="AQ31" s="51">
         <f t="shared" si="1"/>
         <v>3343.6800000000003</v>
       </c>
@@ -4415,7 +4380,7 @@
       <c r="A32" s="2">
         <v>4</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="54" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -4535,10 +4500,10 @@
       <c r="AO32" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP32" s="53">
+      <c r="AP32" s="48">
         <v>0.3</v>
       </c>
-      <c r="AQ32" s="56">
+      <c r="AQ32" s="51">
         <f t="shared" si="1"/>
         <v>1060.1279999999999</v>
       </c>
@@ -4547,7 +4512,7 @@
       <c r="A33" s="11">
         <v>5</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="12" t="s">
         <v>66</v>
       </c>
@@ -4666,10 +4631,10 @@
       <c r="AO33" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP33" s="53">
+      <c r="AP33" s="48">
         <v>0.11</v>
       </c>
-      <c r="AQ33" s="56">
+      <c r="AQ33" s="51">
         <f t="shared" si="1"/>
         <v>262.31040000000002</v>
       </c>
@@ -4678,7 +4643,7 @@
       <c r="A34" s="11">
         <v>6</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="12" t="s">
         <v>71</v>
       </c>
@@ -4796,10 +4761,10 @@
       <c r="AO34" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP34" s="53">
+      <c r="AP34" s="48">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AQ34" s="56">
+      <c r="AQ34" s="51">
         <f t="shared" si="1"/>
         <v>834.62400000000002</v>
       </c>
@@ -4808,7 +4773,7 @@
       <c r="A35" s="11">
         <v>7</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="54" t="s">
         <v>74</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -4928,10 +4893,10 @@
       <c r="AO35" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP35" s="53">
+      <c r="AP35" s="48">
         <v>0.33</v>
       </c>
-      <c r="AQ35" s="56">
+      <c r="AQ35" s="51">
         <f t="shared" si="1"/>
         <v>992.21760000000006</v>
       </c>
@@ -4940,7 +4905,7 @@
       <c r="A36" s="11">
         <v>8</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="12" t="s">
         <v>79</v>
       </c>
@@ -5058,10 +5023,10 @@
       <c r="AO36" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP36" s="53">
+      <c r="AP36" s="48">
         <v>0.25</v>
       </c>
-      <c r="AQ36" s="56">
+      <c r="AQ36" s="51">
         <f t="shared" si="1"/>
         <v>574.56000000000006</v>
       </c>
@@ -5070,7 +5035,7 @@
       <c r="A37" s="11">
         <v>9</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="12" t="s">
         <v>84</v>
       </c>
@@ -5188,10 +5153,10 @@
       <c r="AO37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP37" s="53">
+      <c r="AP37" s="48">
         <v>0.42</v>
       </c>
-      <c r="AQ37" s="56">
+      <c r="AQ37" s="51">
         <f t="shared" si="1"/>
         <v>1632.96</v>
       </c>
@@ -5200,7 +5165,7 @@
       <c r="A38" s="11">
         <v>10</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="54" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -5320,10 +5285,10 @@
       <c r="AO38" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP38" s="58">
+      <c r="AP38" s="53">
         <v>0.19</v>
       </c>
-      <c r="AQ38" s="56">
+      <c r="AQ38" s="51">
         <f t="shared" si="1"/>
         <v>571.27679999999998</v>
       </c>
@@ -5332,7 +5297,7 @@
       <c r="A39" s="11">
         <v>11</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="12" t="s">
         <v>92</v>
       </c>
@@ -5450,10 +5415,10 @@
       <c r="AO39" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP39" s="58">
+      <c r="AP39" s="53">
         <v>0.11</v>
       </c>
-      <c r="AQ39" s="56">
+      <c r="AQ39" s="51">
         <f t="shared" si="1"/>
         <v>193.88159999999999</v>
       </c>
@@ -5462,7 +5427,7 @@
       <c r="A40" s="11">
         <v>12</v>
       </c>
-      <c r="B40" s="47"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="12" t="s">
         <v>97</v>
       </c>
@@ -5581,10 +5546,10 @@
       <c r="AO40" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP40" s="53">
+      <c r="AP40" s="48">
         <v>0.23</v>
       </c>
-      <c r="AQ40" s="56">
+      <c r="AQ40" s="51">
         <f t="shared" si="1"/>
         <v>1055.2032000000002</v>
       </c>
@@ -5593,7 +5558,7 @@
       <c r="A41" s="11">
         <v>13</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="54" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -5713,10 +5678,10 @@
       <c r="AO41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="53">
+      <c r="AP41" s="48">
         <v>0.36</v>
       </c>
-      <c r="AQ41" s="56">
+      <c r="AQ41" s="51">
         <f t="shared" si="1"/>
         <v>510.10559999999992</v>
       </c>
@@ -5725,7 +5690,7 @@
       <c r="A42" s="11">
         <v>14</v>
       </c>
-      <c r="B42" s="47"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="12" t="s">
         <v>106</v>
       </c>
@@ -5843,10 +5808,10 @@
       <c r="AO42" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP42" s="53">
+      <c r="AP42" s="48">
         <v>0.5</v>
       </c>
-      <c r="AQ42" s="56">
+      <c r="AQ42" s="51">
         <f t="shared" si="1"/>
         <v>799.2</v>
       </c>
@@ -5855,7 +5820,7 @@
       <c r="A43" s="11">
         <v>15</v>
       </c>
-      <c r="B43" s="47"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="12" t="s">
         <v>109</v>
       </c>
@@ -5973,10 +5938,10 @@
       <c r="AO43" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP43" s="53">
+      <c r="AP43" s="48">
         <v>0.17</v>
       </c>
-      <c r="AQ43" s="56">
+      <c r="AQ43" s="51">
         <f t="shared" si="1"/>
         <v>540.51840000000004</v>
       </c>
@@ -6201,34 +6166,34 @@
       <c r="AO48" s="7"/>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="51"/>
-      <c r="U49" s="51"/>
-      <c r="V49" s="51"/>
-      <c r="W49" s="51"/>
-      <c r="X49" s="51"/>
-      <c r="Y49" s="51"/>
-      <c r="Z49" s="51"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="58"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="58"/>
+      <c r="Z49" s="58"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
       <c r="AC49" s="20"/>
@@ -6369,10 +6334,10 @@
       <c r="AO50" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="AP50" s="52" t="s">
+      <c r="AP50" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="AQ50" s="52" t="s">
+      <c r="AQ50" s="47" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6380,7 +6345,7 @@
       <c r="A51" s="2">
         <v>1</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="54" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="27" t="s">
@@ -6503,10 +6468,10 @@
       <c r="AO51" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP51" s="53">
+      <c r="AP51" s="48">
         <v>0.02</v>
       </c>
-      <c r="AQ51" s="56">
+      <c r="AQ51" s="51">
         <f>(M51*AP51)*86.4</f>
         <v>38.7072</v>
       </c>
@@ -6515,7 +6480,7 @@
       <c r="A52" s="2">
         <v>2</v>
       </c>
-      <c r="B52" s="47"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="27" t="s">
         <v>44</v>
       </c>
@@ -6636,10 +6601,10 @@
       <c r="AO52" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP52" s="53">
+      <c r="AP52" s="48">
         <v>0.02</v>
       </c>
-      <c r="AQ52" s="56">
+      <c r="AQ52" s="51">
         <f t="shared" ref="AQ52:AQ65" si="2">(M52*AP52)*86.4</f>
         <v>70.502399999999994</v>
       </c>
@@ -6648,7 +6613,7 @@
       <c r="A53" s="2">
         <v>3</v>
       </c>
-      <c r="B53" s="47"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="27" t="s">
         <v>51</v>
       </c>
@@ -6769,10 +6734,10 @@
       <c r="AO53" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP53" s="53">
+      <c r="AP53" s="48">
         <v>0.24</v>
       </c>
-      <c r="AQ53" s="56">
+      <c r="AQ53" s="51">
         <f t="shared" si="2"/>
         <v>423.01440000000002</v>
       </c>
@@ -6781,7 +6746,7 @@
       <c r="A54" s="2">
         <v>4</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="54" t="s">
         <v>59</v>
       </c>
       <c r="C54" s="27" t="s">
@@ -6904,10 +6869,10 @@
       <c r="AO54" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP54" s="53">
+      <c r="AP54" s="48">
         <v>0.13</v>
       </c>
-      <c r="AQ54" s="56">
+      <c r="AQ54" s="51">
         <f t="shared" si="2"/>
         <v>274.06079999999997</v>
       </c>
@@ -6916,7 +6881,7 @@
       <c r="A55" s="2">
         <v>5</v>
       </c>
-      <c r="B55" s="47"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="27" t="s">
         <v>66</v>
       </c>
@@ -7037,10 +7002,10 @@
       <c r="AO55" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="53">
+      <c r="AP55" s="48">
         <v>0.18</v>
       </c>
-      <c r="AQ55" s="56">
+      <c r="AQ55" s="51">
         <f t="shared" si="2"/>
         <v>412.12799999999999</v>
       </c>
@@ -7049,7 +7014,7 @@
       <c r="A56" s="2">
         <v>6</v>
       </c>
-      <c r="B56" s="47"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="27" t="s">
         <v>71</v>
       </c>
@@ -7170,10 +7135,10 @@
       <c r="AO56" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP56" s="53">
+      <c r="AP56" s="48">
         <v>0.08</v>
       </c>
-      <c r="AQ56" s="56">
+      <c r="AQ56" s="51">
         <f t="shared" si="2"/>
         <v>295.83359999999999</v>
       </c>
@@ -7182,7 +7147,7 @@
       <c r="A57" s="2">
         <v>7</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="54" t="s">
         <v>74</v>
       </c>
       <c r="C57" s="27" t="s">
@@ -7305,10 +7270,10 @@
       <c r="AO57" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP57" s="53">
+      <c r="AP57" s="48">
         <v>0.49</v>
       </c>
-      <c r="AQ57" s="56">
+      <c r="AQ57" s="51">
         <f t="shared" si="2"/>
         <v>948.32640000000004</v>
       </c>
@@ -7317,7 +7282,7 @@
       <c r="A58" s="2">
         <v>8</v>
       </c>
-      <c r="B58" s="47"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="27" t="s">
         <v>79</v>
       </c>
@@ -7438,10 +7403,10 @@
       <c r="AO58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP58" s="53">
+      <c r="AP58" s="48">
         <v>1.81</v>
       </c>
-      <c r="AQ58" s="56">
+      <c r="AQ58" s="51">
         <f t="shared" si="2"/>
         <v>2236.2912000000006</v>
       </c>
@@ -7450,7 +7415,7 @@
       <c r="A59" s="2">
         <v>9</v>
       </c>
-      <c r="B59" s="47"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="27" t="s">
         <v>84</v>
       </c>
@@ -7571,10 +7536,10 @@
       <c r="AO59" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP59" s="53">
+      <c r="AP59" s="48">
         <v>0.8</v>
       </c>
-      <c r="AQ59" s="56">
+      <c r="AQ59" s="51">
         <f t="shared" si="2"/>
         <v>1686.528</v>
       </c>
@@ -7583,7 +7548,7 @@
       <c r="A60" s="2">
         <v>10</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="54" t="s">
         <v>87</v>
       </c>
       <c r="C60" s="27" t="s">
@@ -7706,10 +7671,10 @@
       <c r="AO60" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP60" s="53">
+      <c r="AP60" s="48">
         <v>0.09</v>
       </c>
-      <c r="AQ60" s="56">
+      <c r="AQ60" s="51">
         <f t="shared" si="2"/>
         <v>126.74880000000002</v>
       </c>
@@ -7718,7 +7683,7 @@
       <c r="A61" s="2">
         <v>11</v>
       </c>
-      <c r="B61" s="47"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="27" t="s">
         <v>92</v>
       </c>
@@ -7839,10 +7804,10 @@
       <c r="AO61" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP61" s="53">
+      <c r="AP61" s="48">
         <v>0.17</v>
       </c>
-      <c r="AQ61" s="56">
+      <c r="AQ61" s="51">
         <f t="shared" si="2"/>
         <v>210.03840000000005</v>
       </c>
@@ -7851,7 +7816,7 @@
       <c r="A62" s="2">
         <v>12</v>
       </c>
-      <c r="B62" s="47"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="27" t="s">
         <v>97</v>
       </c>
@@ -7972,10 +7937,10 @@
       <c r="AO62" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP62" s="53">
+      <c r="AP62" s="48">
         <v>0.06</v>
       </c>
-      <c r="AQ62" s="56">
+      <c r="AQ62" s="51">
         <f t="shared" si="2"/>
         <v>279.93599999999998</v>
       </c>
@@ -7984,7 +7949,7 @@
       <c r="A63" s="2">
         <v>13</v>
       </c>
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="54" t="s">
         <v>29</v>
       </c>
       <c r="C63" s="27" t="s">
@@ -8107,10 +8072,10 @@
       <c r="AO63" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP63" s="53">
+      <c r="AP63" s="48">
         <v>1.83</v>
       </c>
-      <c r="AQ63" s="56">
+      <c r="AQ63" s="51">
         <f t="shared" si="2"/>
         <v>3541.7087999999999</v>
       </c>
@@ -8119,7 +8084,7 @@
       <c r="A64" s="2">
         <v>14</v>
       </c>
-      <c r="B64" s="47"/>
+      <c r="B64" s="54"/>
       <c r="C64" s="27" t="s">
         <v>106</v>
       </c>
@@ -8240,10 +8205,10 @@
       <c r="AO64" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP64" s="53">
+      <c r="AP64" s="48">
         <v>0.23</v>
       </c>
-      <c r="AQ64" s="56">
+      <c r="AQ64" s="51">
         <f t="shared" si="2"/>
         <v>284.16960000000006</v>
       </c>
@@ -8252,7 +8217,7 @@
       <c r="A65" s="2">
         <v>15</v>
       </c>
-      <c r="B65" s="47"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="27" t="s">
         <v>109</v>
       </c>
@@ -8373,10 +8338,10 @@
       <c r="AO65" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP65" s="53">
+      <c r="AP65" s="48">
         <v>0.27</v>
       </c>
-      <c r="AQ65" s="56">
+      <c r="AQ65" s="51">
         <f t="shared" si="2"/>
         <v>618.19200000000001</v>
       </c>
@@ -8632,7 +8597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63DE2DE-09F8-42B5-AB36-6B2B4ED98A7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8642,38 +8607,38 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="46" t="s">
         <v>193</v>
       </c>
@@ -8694,470 +8659,470 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
+      <c r="A4" s="48">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="48">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="48">
         <v>0.45</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="48">
         <v>0.09</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="48">
         <v>0.7</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="48">
         <v>0.36</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="48">
         <v>1.83</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
+      <c r="A5" s="48">
         <v>2</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="48">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="48">
         <v>0.49</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="48">
         <v>0.1</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="48">
         <v>1.59</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="48">
         <v>0.5</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="48">
         <v>0.23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
+      <c r="A6" s="48">
         <v>3</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="48">
         <v>0.13</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="48">
         <v>0.1</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="48">
         <v>0.06</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="48">
         <v>0</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="48">
         <v>0.17</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="48">
         <v>0.27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="53">
+      <c r="A7" s="48">
         <v>4</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="48">
         <v>0.24</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="48">
         <v>1.44</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="48">
         <v>1.01</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="48">
         <v>0.73</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="48" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+      <c r="A8" s="48">
         <v>5</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="48">
         <v>0.11</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="48">
         <v>0.02</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="48">
         <v>0.25</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="48">
         <v>0.06</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="48" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="53">
+      <c r="A9" s="48">
         <v>6</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="48">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="48">
         <v>0.16</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="48">
         <v>0.05</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="48">
         <v>0.02</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="48" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="53">
+      <c r="A10" s="48">
         <v>7</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="48">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="48">
         <v>0.11</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="48">
         <v>0.06</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="48">
         <v>0.35</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="48">
         <v>0.3</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="48">
         <v>0.13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
+      <c r="A11" s="48">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="48">
         <v>0.1</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="48">
         <v>0.18</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="48">
         <v>0.2</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="48">
         <v>0.24</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="48">
         <v>0.11</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="48">
         <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="53">
+      <c r="A12" s="48">
         <v>9</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="48">
         <v>0.1</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="48">
         <v>0.48</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="48">
         <v>0</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="48">
         <v>0.09</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="48">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="48">
         <v>0.08</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="53">
+      <c r="A13" s="48">
         <v>10</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="48">
         <v>0.1</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="48">
         <v>0.05</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="48">
         <v>0.02</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="48">
         <v>0.02</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="48">
         <v>0.09</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="48">
         <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
+      <c r="A14" s="48">
         <v>11</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="48">
         <v>0.15</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="48">
         <v>0.08</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="48">
         <v>0.02</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="48">
         <v>0.19</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="48">
         <v>0.33</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="48">
         <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="53">
+      <c r="A15" s="48">
         <v>12</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="48">
         <v>0.35</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="48">
         <v>0.31</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="48">
         <v>0.16</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="48">
         <v>2.4</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="48">
         <v>0.9</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="48">
         <v>0.24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
+      <c r="A16" s="48">
         <v>13</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="48">
         <v>1.96</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="48">
         <v>0.23</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="48">
         <v>0.39</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="48">
         <v>8.7799999999999994</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="48">
         <v>0.33</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="48">
         <v>0.49</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53">
+      <c r="A17" s="48">
         <v>14</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="48">
         <v>0.78</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="48">
         <v>3</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="48">
         <v>1.68</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="48">
         <v>1.51</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="48">
         <v>0.25</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="48">
         <v>1.81</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="53">
+      <c r="A18" s="48">
         <v>15</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="48">
         <v>1.77</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="48">
         <v>2.88</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="48">
         <v>0.16</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="48">
         <v>10.4</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="48">
         <v>0.42</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="48">
         <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="53">
+      <c r="A19" s="48">
         <v>16</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="53">
         <v>0.19</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="48">
         <v>0.09</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="53">
+      <c r="A20" s="48">
         <v>17</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="53">
         <v>0.11</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="48">
         <v>0.17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
+      <c r="A21" s="48">
         <v>18</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="48">
         <v>0.23</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="48">
         <v>0.06</v>
       </c>
     </row>

--- a/public/exp/BODAktualCimahi.xlsx
+++ b/public/exp/BODAktualCimahi.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0AE375-42BE-B241-A9C3-83B04C0F8CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="7540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel 29" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -947,13 +960,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1171,8 +1184,8 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1222,7 +1235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1265,10 +1278,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1283,25 +1296,25 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1318,7 +1331,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1326,22 +1339,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1432,6 +1445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1467,6 +1497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1642,41 +1689,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.1640625" hidden="1" customWidth="1"/>
     <col min="14" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="10.42578125" customWidth="1"/>
-    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.5" customWidth="1"/>
+    <col min="44" max="44" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1684,7 +1731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1692,7 +1739,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1823,7 +1870,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1861,7 +1908,7 @@
         <v>3.22</v>
       </c>
       <c r="M5" s="29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N5" s="29">
         <v>18</v>
@@ -1952,10 +1999,10 @@
       </c>
       <c r="AQ5" s="51">
         <f>(M5*AP5)*86.4</f>
-        <v>12.096000000000002</v>
+        <v>17.28</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2085,7 +2132,7 @@
         <v>279.072</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2215,7 +2262,7 @@
         <v>2903.0400000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2347,7 +2394,7 @@
         <v>1270.08</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2477,7 +2524,7 @@
         <v>953.85599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2607,7 +2654,7 @@
         <v>419.904</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2645,7 +2692,7 @@
         <v>6.7</v>
       </c>
       <c r="M11" s="34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N11" s="34">
         <v>28</v>
@@ -2736,10 +2783,10 @@
       </c>
       <c r="AQ11" s="51">
         <f t="shared" si="0"/>
-        <v>5310.1440000000002</v>
+        <v>7585.92</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2869,7 +2916,7 @@
         <v>1043.712</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2999,7 +3046,7 @@
         <v>8985.6</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -3131,7 +3178,7 @@
         <v>1072.2240000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -3261,7 +3308,7 @@
         <v>196.99199999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -3391,7 +3438,7 @@
         <v>81.216000000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -3523,7 +3570,7 @@
         <v>1632.96</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -3653,7 +3700,7 @@
         <v>2610.1440000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -3783,31 +3830,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="M20" s="49"/>
       <c r="AP20" s="50"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="56" t="s">
         <v>119</v>
       </c>
@@ -3852,7 +3899,7 @@
       <c r="AN27" s="57"/>
       <c r="AO27" s="57"/>
     </row>
-    <row r="28" spans="1:43" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>3</v>
       </c>
@@ -3983,7 +4030,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>1</v>
       </c>
@@ -4115,7 +4162,7 @@
         <v>894.24</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>2</v>
       </c>
@@ -4246,7 +4293,7 @@
         <v>701.39520000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>3</v>
       </c>
@@ -4376,7 +4423,7 @@
         <v>3343.6800000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -4508,7 +4555,7 @@
         <v>1060.1279999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>5</v>
       </c>
@@ -4639,7 +4686,7 @@
         <v>262.31040000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>6</v>
       </c>
@@ -4769,7 +4816,7 @@
         <v>834.62400000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>7</v>
       </c>
@@ -4901,7 +4948,7 @@
         <v>992.21760000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>8</v>
       </c>
@@ -5031,7 +5078,7 @@
         <v>574.56000000000006</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>9</v>
       </c>
@@ -5161,7 +5208,7 @@
         <v>1632.96</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>10</v>
       </c>
@@ -5293,7 +5340,7 @@
         <v>571.27679999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>11</v>
       </c>
@@ -5423,7 +5470,7 @@
         <v>193.88159999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>12</v>
       </c>
@@ -5554,7 +5601,7 @@
         <v>1055.2032000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>13</v>
       </c>
@@ -5686,7 +5733,7 @@
         <v>510.10559999999992</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>14</v>
       </c>
@@ -5816,7 +5863,7 @@
         <v>799.2</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>15</v>
       </c>
@@ -5946,7 +5993,7 @@
         <v>540.51840000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -5989,7 +6036,7 @@
       <c r="AN44" s="7"/>
       <c r="AO44" s="7"/>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>115</v>
       </c>
@@ -6034,7 +6081,7 @@
       <c r="AN45" s="7"/>
       <c r="AO45" s="7"/>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>137</v>
       </c>
@@ -6079,7 +6126,7 @@
       <c r="AN46" s="7"/>
       <c r="AO46" s="7"/>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -6122,7 +6169,7 @@
       <c r="AN47" s="7"/>
       <c r="AO47" s="7"/>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -6165,35 +6212,35 @@
       <c r="AN48" s="7"/>
       <c r="AO48" s="7"/>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A49" s="58" t="s">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A49" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
-      <c r="U49" s="58"/>
-      <c r="V49" s="58"/>
-      <c r="W49" s="58"/>
-      <c r="X49" s="58"/>
-      <c r="Y49" s="58"/>
-      <c r="Z49" s="58"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
       <c r="AC49" s="20"/>
@@ -6210,7 +6257,7 @@
       <c r="AN49" s="20"/>
       <c r="AO49" s="20"/>
     </row>
-    <row r="50" spans="1:43" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
         <v>3</v>
       </c>
@@ -6341,7 +6388,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -6476,7 +6523,7 @@
         <v>38.7072</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2</v>
       </c>
@@ -6609,7 +6656,7 @@
         <v>70.502399999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>3</v>
       </c>
@@ -6742,7 +6789,7 @@
         <v>423.01440000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -6877,7 +6924,7 @@
         <v>274.06079999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>5</v>
       </c>
@@ -7010,7 +7057,7 @@
         <v>412.12799999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>6</v>
       </c>
@@ -7143,7 +7190,7 @@
         <v>295.83359999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>7</v>
       </c>
@@ -7278,7 +7325,7 @@
         <v>948.32640000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>8</v>
       </c>
@@ -7411,7 +7458,7 @@
         <v>2236.2912000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>9</v>
       </c>
@@ -7544,7 +7591,7 @@
         <v>1686.528</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>10</v>
       </c>
@@ -7679,7 +7726,7 @@
         <v>126.74880000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>11</v>
       </c>
@@ -7812,7 +7859,7 @@
         <v>210.03840000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>12</v>
       </c>
@@ -7945,7 +7992,7 @@
         <v>279.93599999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>13</v>
       </c>
@@ -8080,7 +8127,7 @@
         <v>3541.7087999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>14</v>
       </c>
@@ -8213,7 +8260,7 @@
         <v>284.16960000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>15</v>
       </c>
@@ -8346,7 +8393,7 @@
         <v>618.19200000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -8389,7 +8436,7 @@
       <c r="AN66" s="7"/>
       <c r="AO66" s="7"/>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>115</v>
       </c>
@@ -8434,7 +8481,7 @@
       <c r="AN67" s="7"/>
       <c r="AO67" s="7"/>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>116</v>
       </c>
@@ -8479,7 +8526,7 @@
       <c r="AN68" s="7"/>
       <c r="AO68" s="7"/>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>117</v>
       </c>
@@ -8524,7 +8571,7 @@
       <c r="AN69" s="7"/>
       <c r="AO69" s="7"/>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>139</v>
       </c>
@@ -8572,6 +8619,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A27:AO27"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="B41:B43"/>
@@ -8579,17 +8637,6 @@
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A27:AO27"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8597,16 +8644,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>3</v>
       </c>
@@ -8622,7 +8669,7 @@
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
       <c r="B2" s="54"/>
       <c r="C2" s="54" t="s">
@@ -8636,7 +8683,7 @@
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="54"/>
       <c r="B3" s="54"/>
       <c r="C3" s="46" t="s">
@@ -8658,7 +8705,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="48">
         <v>1</v>
       </c>
@@ -8684,7 +8731,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="48">
         <v>2</v>
       </c>
@@ -8710,7 +8757,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="48">
         <v>3</v>
       </c>
@@ -8736,7 +8783,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="48">
         <v>4</v>
       </c>
@@ -8762,7 +8809,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="48">
         <v>5</v>
       </c>
@@ -8788,7 +8835,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="48">
         <v>6</v>
       </c>
@@ -8814,7 +8861,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="48">
         <v>7</v>
       </c>
@@ -8840,7 +8887,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="48">
         <v>8</v>
       </c>
@@ -8866,7 +8913,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="48">
         <v>9</v>
       </c>
@@ -8892,7 +8939,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="48">
         <v>10</v>
       </c>
@@ -8918,7 +8965,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="48">
         <v>11</v>
       </c>
@@ -8944,7 +8991,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="48">
         <v>12</v>
       </c>
@@ -8970,7 +9017,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="48">
         <v>13</v>
       </c>
@@ -8996,7 +9043,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="48">
         <v>14</v>
       </c>
@@ -9022,7 +9069,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="48">
         <v>15</v>
       </c>
@@ -9048,7 +9095,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="48">
         <v>16</v>
       </c>
@@ -9074,7 +9121,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="48">
         <v>17</v>
       </c>
@@ -9100,7 +9147,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="48">
         <v>18</v>
       </c>

--- a/public/exp/BODAktualCimahi.xlsx
+++ b/public/exp/BODAktualCimahi.xlsx
@@ -9,13 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="20505" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel 29" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1646,18 +1658,18 @@
   <dimension ref="A1:AQ70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="9.140625" hidden="1" customWidth="1"/>
@@ -1861,7 +1873,7 @@
         <v>3.22</v>
       </c>
       <c r="M5" s="29">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N5" s="29">
         <v>18</v>
@@ -1952,7 +1964,7 @@
       </c>
       <c r="AQ5" s="51">
         <f>(M5*AP5)*86.4</f>
-        <v>12.096000000000002</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -2645,7 +2657,7 @@
         <v>6.7</v>
       </c>
       <c r="M11" s="34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N11" s="34">
         <v>28</v>
@@ -2736,7 +2748,7 @@
       </c>
       <c r="AQ11" s="51">
         <f t="shared" si="0"/>
-        <v>5310.1440000000002</v>
+        <v>7585.92</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
@@ -6877,7 +6889,7 @@
         <v>274.06079999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>5</v>
       </c>
@@ -7010,7 +7022,7 @@
         <v>412.12799999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>6</v>
       </c>
@@ -7278,7 +7290,7 @@
         <v>948.32640000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>8</v>
       </c>
@@ -7411,7 +7423,7 @@
         <v>2236.2912000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>9</v>
       </c>
@@ -8604,7 +8616,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
